--- a/biology/Botanique/Melianthus_major/Melianthus_major.xlsx
+++ b/biology/Botanique/Melianthus_major/Melianthus_major.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melianthus major est une espèce de plante vivace, de la famille des Melianthaceae. Il s'agit d'un sous-arbrisseau originaire des forêts d'Afrique du Sud. Ses fleurs sont rouge bordeaux et le feuillage dégage une odeur huileuse caractéristique, qui évoque l'arachide. Bien qu'étant toxique dans toutes ses parties, cette plante au développement spectaculaire est commercialisée comme plante ornementale pour les climats doux[1], sous le nom de Grande mélianthe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melianthus major est une espèce de plante vivace, de la famille des Melianthaceae. Il s'agit d'un sous-arbrisseau originaire des forêts d'Afrique du Sud. Ses fleurs sont rouge bordeaux et le feuillage dégage une odeur huileuse caractéristique, qui évoque l'arachide. Bien qu'étant toxique dans toutes ses parties, cette plante au développement spectaculaire est commercialisée comme plante ornementale pour les climats doux, sous le nom de Grande mélianthe.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Jeune plante
